--- a/output/resultados_desoc.xlsx
+++ b/output/resultados_desoc.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\CEPAL 2022\Costa Rica\CRIsieh\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/andres_gutierrez_un_org/Documents/CEPAL/Misiones/2022/CRI/github/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734EB0A2-13D0-4CF0-9B66-A76C27D7610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F58E72B8A9A5139EA4B553EFD7FB9176CA44E643" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0D9C12C-0CE4-4893-BBC9-4612E3E718C7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tablaMuestreo_desoc_Urbana" sheetId="1" r:id="rId1"/>
     <sheet name="tablaMuestreo_desoc_Rural" sheetId="2" r:id="rId2"/>
     <sheet name="tablaMuestreo_desoc_Nacional" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -78,18 +89,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,16 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -134,7 +132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,23 +455,12 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5</v>
       </c>
@@ -543,42 +530,42 @@
         <v>54062884.919863783</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>1.22</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>1066</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>6397</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>8908</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H3" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I3">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>51651.925028218437</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>55060952.080080852</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7</v>
       </c>
@@ -613,7 +600,7 @@
         <v>55937675.141755447</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8</v>
       </c>
@@ -648,7 +635,7 @@
         <v>56846563.086347893</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
@@ -683,7 +670,7 @@
         <v>57782124.945017099</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10</v>
       </c>
@@ -718,7 +705,7 @@
         <v>58753472.291475333</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11</v>
       </c>
@@ -753,7 +740,7 @@
         <v>59827612.693549141</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>12</v>
       </c>
@@ -788,7 +775,7 @@
         <v>60886045.232096061</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>13</v>
       </c>
@@ -823,7 +810,7 @@
         <v>61984128.196930692</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>14</v>
       </c>
@@ -858,7 +845,7 @@
         <v>63146677.530769713</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>15</v>
       </c>
@@ -902,25 +889,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,388 +930,388 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>1.06</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1084</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>5418</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>6566</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H2" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="H2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I2">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>30174.08671086701</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>32708709.99457984</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>1.07</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>915</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>5488</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>6652</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H3" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="H3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>44824.992496951803</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3">
         <v>41014868.1347109</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>794</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>5559</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>6738</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H4" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J4" s="3">
-        <v>57267.898283036608</v>
-      </c>
-      <c r="K4" s="3">
-        <v>45470711.236731067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="J4">
+        <v>57267.898283036622</v>
+      </c>
+      <c r="K4">
+        <v>45470711.236731082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>704</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>5631</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>6825</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H5" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I5">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5">
         <v>68284.804069121426</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>48072502.064661488</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>634</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>5702</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>6911</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H6" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I6">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>78381.709855206223</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>49694004.048200749</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>577</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>5773</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>6997</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H7" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="H7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I7">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7">
         <v>87880.61564129102</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>50707115.225024924</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>531</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>5844</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8">
         <v>7083</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H8" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I8">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>96873.521427375847</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>51439839.877936572</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>493</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>5916</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>7170</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H9" s="4">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="H9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I9">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
         <v>105498.4272134606</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9">
         <v>52010724.616236098</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>1.17</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>461</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>5987</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>7256</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H10" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I10">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10">
         <v>113847.3329995454</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>52483620.512790449</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>17</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>1.18</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>433</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>6058</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>7342</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H11" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I11">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11">
         <v>122012.23878563019</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11">
         <v>52831299.394177891</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>1.2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>409</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>6129</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>7428</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H12" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I12">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12">
         <v>129993.14457171509</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>53167196.129831463</v>
       </c>
     </row>
@@ -1349,11 +1324,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1423,7 +1400,7 @@
         <v>86771594.91986379</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1458,7 +1435,7 @@
         <v>96075820.080080852</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7</v>
       </c>
@@ -1490,10 +1467,10 @@
         <v>58347.748067753419</v>
       </c>
       <c r="K4">
-        <v>101408386.1417554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101408386.14175551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1528,7 +1505,7 @@
         <v>104919065.08634789</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1536,7 +1513,7 @@
         <v>11.802966101694921</v>
       </c>
       <c r="C6">
-        <v>1.204922618379159</v>
+        <v>1.2049226183791599</v>
       </c>
       <c r="D6">
         <v>1416</v>
@@ -1563,7 +1540,7 @@
         <v>107476128.9450171</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1598,7 +1575,7 @@
         <v>109460587.2914753</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1633,7 +1610,7 @@
         <v>111267452.6935491</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1668,7 +1645,7 @@
         <v>112896770.23209611</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1703,7 +1680,7 @@
         <v>114467749.19693071</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1732,13 +1709,13 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="J11">
-        <v>114602.7436074799</v>
+        <v>114602.74360748001</v>
       </c>
       <c r="K11">
         <v>115977976.53076971</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>15</v>
       </c>
